--- a/document/database.xlsx
+++ b/document/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duychien\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\back_end\laragon\www\do_an_1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18A602B-40AF-4732-9745-DE0FFCA2C78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91523917-FE09-423D-8641-C47F1C3DBA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Nhân viên</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>so_luong</t>
+  </si>
+  <si>
+    <t>The_loai</t>
+  </si>
+  <si>
+    <t>ma_the_loai</t>
   </si>
 </sst>
 </file>
@@ -435,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +471,9 @@
         <v>2</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -481,7 +489,9 @@
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -497,7 +507,9 @@
         <v>4</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -704,7 +716,9 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="G21" s="1"/>
